--- a/BPS_FH_Dataset/10/chords.xlsx
+++ b/BPS_FH_Dataset/10/chords.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Data Set\BPS Dataset\10 r\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Dataset\BPS Dataset\10 r\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1017,18 +1017,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="B287" sqref="B287"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="B1" s="1">
         <v>4</v>
@@ -1049,7 +1047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -1072,7 +1070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>8</v>
       </c>
@@ -1095,7 +1093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>9</v>
       </c>
@@ -1118,7 +1116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10</v>
       </c>
@@ -1141,7 +1139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -1164,7 +1162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -1187,7 +1185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>13</v>
       </c>
@@ -1210,7 +1208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>14</v>
       </c>
@@ -1233,7 +1231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>18</v>
       </c>
@@ -1256,7 +1254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>22</v>
       </c>
@@ -1279,7 +1277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>26</v>
       </c>
@@ -1302,7 +1300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>27</v>
       </c>
@@ -1325,7 +1323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>28</v>
       </c>
@@ -1348,7 +1346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -1371,7 +1369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>30</v>
       </c>
@@ -1394,7 +1392,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>32</v>
       </c>
@@ -1417,7 +1415,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>33</v>
       </c>
@@ -1440,7 +1438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>34</v>
       </c>
@@ -1463,7 +1461,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>35</v>
       </c>
@@ -1486,7 +1484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>36</v>
       </c>
@@ -1509,7 +1507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>37</v>
       </c>
@@ -1532,7 +1530,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>38</v>
       </c>
@@ -1555,7 +1553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>39</v>
       </c>
@@ -1578,7 +1576,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>40</v>
       </c>
@@ -1601,7 +1599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>41</v>
       </c>
@@ -1624,7 +1622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>42</v>
       </c>
@@ -1647,7 +1645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43</v>
       </c>
@@ -1670,7 +1668,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44</v>
       </c>
@@ -1693,7 +1691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45</v>
       </c>
@@ -1716,7 +1714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>46</v>
       </c>
@@ -1739,7 +1737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>50</v>
       </c>
@@ -1762,7 +1760,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>56</v>
       </c>
@@ -1785,7 +1783,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>64</v>
       </c>
@@ -1808,7 +1806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>65</v>
       </c>
@@ -1831,7 +1829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>66</v>
       </c>
@@ -1854,7 +1852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>67</v>
       </c>
@@ -1877,7 +1875,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>68</v>
       </c>
@@ -1900,7 +1898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>69</v>
       </c>
@@ -1923,7 +1921,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>70</v>
       </c>
@@ -1946,7 +1944,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>72</v>
       </c>
@@ -1969,7 +1967,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>73</v>
       </c>
@@ -1992,7 +1990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>74</v>
       </c>
@@ -2015,7 +2013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>75</v>
       </c>
@@ -2038,7 +2036,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>76</v>
       </c>
@@ -2061,7 +2059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>77</v>
       </c>
@@ -2084,7 +2082,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>78</v>
       </c>
@@ -2107,7 +2105,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>80</v>
       </c>
@@ -2130,7 +2128,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>82</v>
       </c>
@@ -2153,7 +2151,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>84</v>
       </c>
@@ -2176,7 +2174,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>87</v>
       </c>
@@ -2199,7 +2197,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>88</v>
       </c>
@@ -2222,7 +2220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>90</v>
       </c>
@@ -2245,7 +2243,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>91</v>
       </c>
@@ -2268,7 +2266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>92</v>
       </c>
@@ -2291,7 +2289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>98</v>
       </c>
@@ -2314,7 +2312,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>100</v>
       </c>
@@ -2337,7 +2335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>101</v>
       </c>
@@ -2360,7 +2358,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>102</v>
       </c>
@@ -2383,7 +2381,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>103</v>
       </c>
@@ -2406,7 +2404,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>104</v>
       </c>
@@ -2429,7 +2427,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>105</v>
       </c>
@@ -2452,7 +2450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>106</v>
       </c>
@@ -2475,7 +2473,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>107</v>
       </c>
@@ -2498,7 +2496,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>108</v>
       </c>
@@ -2521,7 +2519,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>109</v>
       </c>
@@ -2544,7 +2542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>110</v>
       </c>
@@ -2567,7 +2565,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>111</v>
       </c>
@@ -2590,7 +2588,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>112</v>
       </c>
@@ -2613,7 +2611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>113</v>
       </c>
@@ -2636,7 +2634,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>114</v>
       </c>
@@ -2659,7 +2657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>115.5</v>
       </c>
@@ -2682,7 +2680,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>116</v>
       </c>
@@ -2705,7 +2703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>117.5</v>
       </c>
@@ -2728,7 +2726,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>118</v>
       </c>
@@ -2751,7 +2749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>119.5</v>
       </c>
@@ -2774,7 +2772,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>120</v>
       </c>
@@ -2797,7 +2795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>120.5</v>
       </c>
@@ -2820,7 +2818,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>121</v>
       </c>
@@ -2843,7 +2841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>121.5</v>
       </c>
@@ -2866,7 +2864,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>122</v>
       </c>
@@ -2889,7 +2887,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>124</v>
       </c>
@@ -2912,7 +2910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>126</v>
       </c>
@@ -2935,7 +2933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>130</v>
       </c>
@@ -2958,7 +2956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>134</v>
       </c>
@@ -2981,7 +2979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>135</v>
       </c>
@@ -3004,7 +3002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>136</v>
       </c>
@@ -3027,7 +3025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>137</v>
       </c>
@@ -3050,7 +3048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>138</v>
       </c>
@@ -3073,7 +3071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>139</v>
       </c>
@@ -3096,7 +3094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>140</v>
       </c>
@@ -3119,7 +3117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>144</v>
       </c>
@@ -3142,7 +3140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>148</v>
       </c>
@@ -3165,7 +3163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>152</v>
       </c>
@@ -3188,7 +3186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>153</v>
       </c>
@@ -3211,7 +3209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>154</v>
       </c>
@@ -3234,7 +3232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>155</v>
       </c>
@@ -3257,7 +3255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>156</v>
       </c>
@@ -3280,7 +3278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>158</v>
       </c>
@@ -3303,7 +3301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>159</v>
       </c>
@@ -3326,7 +3324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>160</v>
       </c>
@@ -3349,7 +3347,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>161</v>
       </c>
@@ -3372,7 +3370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>162</v>
       </c>
@@ -3395,7 +3393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>163</v>
       </c>
@@ -3418,7 +3416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>164</v>
       </c>
@@ -3441,7 +3439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>165</v>
       </c>
@@ -3464,7 +3462,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>166</v>
       </c>
@@ -3487,7 +3485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>167</v>
       </c>
@@ -3510,7 +3508,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>168</v>
       </c>
@@ -3533,7 +3531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>169</v>
       </c>
@@ -3556,7 +3554,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>170</v>
       </c>
@@ -3579,7 +3577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>171</v>
       </c>
@@ -3602,7 +3600,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>172</v>
       </c>
@@ -3625,7 +3623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>176</v>
       </c>
@@ -3648,7 +3646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>182</v>
       </c>
@@ -3671,7 +3669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>190</v>
       </c>
@@ -3694,7 +3692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>191</v>
       </c>
@@ -3717,7 +3715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>192</v>
       </c>
@@ -3740,7 +3738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>193</v>
       </c>
@@ -3763,7 +3761,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>194</v>
       </c>
@@ -3786,7 +3784,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>195</v>
       </c>
@@ -3809,7 +3807,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>196</v>
       </c>
@@ -3832,7 +3830,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>198</v>
       </c>
@@ -3855,7 +3853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>199</v>
       </c>
@@ -3878,7 +3876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>200</v>
       </c>
@@ -3901,7 +3899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>201</v>
       </c>
@@ -3924,7 +3922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>202</v>
       </c>
@@ -3947,7 +3945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>203</v>
       </c>
@@ -3970,7 +3968,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>204</v>
       </c>
@@ -3993,7 +3991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>206</v>
       </c>
@@ -4016,7 +4014,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>208</v>
       </c>
@@ -4039,7 +4037,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>210</v>
       </c>
@@ -4062,7 +4060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>213</v>
       </c>
@@ -4085,7 +4083,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>214</v>
       </c>
@@ -4108,7 +4106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>216</v>
       </c>
@@ -4131,7 +4129,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>217</v>
       </c>
@@ -4154,7 +4152,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>218</v>
       </c>
@@ -4177,7 +4175,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>224</v>
       </c>
@@ -4200,7 +4198,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>226</v>
       </c>
@@ -4223,7 +4221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>227</v>
       </c>
@@ -4246,7 +4244,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>228</v>
       </c>
@@ -4269,7 +4267,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>229</v>
       </c>
@@ -4292,7 +4290,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>230</v>
       </c>
@@ -4315,7 +4313,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>231</v>
       </c>
@@ -4338,7 +4336,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>232</v>
       </c>
@@ -4361,7 +4359,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>233</v>
       </c>
@@ -4384,7 +4382,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>234</v>
       </c>
@@ -4407,7 +4405,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>235</v>
       </c>
@@ -4430,7 +4428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>236</v>
       </c>
@@ -4453,7 +4451,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>237</v>
       </c>
@@ -4476,7 +4474,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>238</v>
       </c>
@@ -4499,7 +4497,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>239</v>
       </c>
@@ -4522,7 +4520,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>240</v>
       </c>
@@ -4545,7 +4543,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>241.5</v>
       </c>
@@ -4568,7 +4566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>242</v>
       </c>
@@ -4591,7 +4589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>243.5</v>
       </c>
@@ -4614,7 +4612,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>244</v>
       </c>
@@ -4637,7 +4635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>245.5</v>
       </c>
@@ -4660,7 +4658,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>246</v>
       </c>
@@ -4683,7 +4681,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>246.5</v>
       </c>
@@ -4706,7 +4704,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>247</v>
       </c>
@@ -4729,7 +4727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>247.5</v>
       </c>
@@ -4752,7 +4750,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>248</v>
       </c>
@@ -4775,7 +4773,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
         <v>250</v>
       </c>
@@ -4798,7 +4796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>252</v>
       </c>
@@ -4821,7 +4819,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>256</v>
       </c>
@@ -4844,7 +4842,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>260</v>
       </c>
@@ -4867,7 +4865,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>262</v>
       </c>
@@ -4890,7 +4888,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>272</v>
       </c>
@@ -4913,7 +4911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>278</v>
       </c>
@@ -4936,7 +4934,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>282</v>
       </c>
@@ -4959,7 +4957,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>284</v>
       </c>
@@ -4982,7 +4980,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>286</v>
       </c>
@@ -5005,7 +5003,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>292</v>
       </c>
@@ -5028,7 +5026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>296</v>
       </c>
@@ -5051,7 +5049,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>302</v>
       </c>
@@ -5074,7 +5072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>306</v>
       </c>
@@ -5097,7 +5095,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>308</v>
       </c>
@@ -5120,7 +5118,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>310</v>
       </c>
@@ -5143,7 +5141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>316</v>
       </c>
@@ -5166,7 +5164,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>322</v>
       </c>
@@ -5189,7 +5187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>326</v>
       </c>
@@ -5212,7 +5210,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>330</v>
       </c>
@@ -5235,7 +5233,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>331</v>
       </c>
@@ -5258,7 +5256,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>332</v>
       </c>
@@ -5281,7 +5279,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>333</v>
       </c>
@@ -5304,7 +5302,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>334</v>
       </c>
@@ -5327,7 +5325,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>335</v>
       </c>
@@ -5350,7 +5348,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>336</v>
       </c>
@@ -5373,7 +5371,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>337</v>
       </c>
@@ -5396,7 +5394,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>338</v>
       </c>
@@ -5419,7 +5417,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>340</v>
       </c>
@@ -5442,7 +5440,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>342</v>
       </c>
@@ -5465,7 +5463,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>344</v>
       </c>
@@ -5488,7 +5486,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>346</v>
       </c>
@@ -5511,7 +5509,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>348</v>
       </c>
@@ -5534,7 +5532,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>350</v>
       </c>
@@ -5557,7 +5555,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="5">
         <v>358</v>
       </c>
@@ -5580,7 +5578,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>374</v>
       </c>
@@ -5603,7 +5601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>378</v>
       </c>
@@ -5626,7 +5624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>382</v>
       </c>
@@ -5649,7 +5647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>383</v>
       </c>
@@ -5672,7 +5670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>384</v>
       </c>
@@ -5695,7 +5693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>385</v>
       </c>
@@ -5718,7 +5716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>386</v>
       </c>
@@ -5741,7 +5739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>387</v>
       </c>
@@ -5764,7 +5762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>388</v>
       </c>
@@ -5787,7 +5785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>392</v>
       </c>
@@ -5810,7 +5808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>396</v>
       </c>
@@ -5833,7 +5831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>398</v>
       </c>
@@ -5856,7 +5854,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>400</v>
       </c>
@@ -5879,7 +5877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>402</v>
       </c>
@@ -5902,7 +5900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>404</v>
       </c>
@@ -5925,7 +5923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>406</v>
       </c>
@@ -5948,7 +5946,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>407</v>
       </c>
@@ -5971,7 +5969,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>408</v>
       </c>
@@ -5994,7 +5992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>410</v>
       </c>
@@ -6017,7 +6015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>412</v>
       </c>
@@ -6040,7 +6038,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>413</v>
       </c>
@@ -6063,7 +6061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>414</v>
       </c>
@@ -6086,7 +6084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>415</v>
       </c>
@@ -6109,7 +6107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>416</v>
       </c>
@@ -6132,7 +6130,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>417</v>
       </c>
@@ -6155,7 +6153,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>418</v>
       </c>
@@ -6178,7 +6176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>419</v>
       </c>
@@ -6201,7 +6199,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>420</v>
       </c>
@@ -6224,7 +6222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>421</v>
       </c>
@@ -6247,7 +6245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>422</v>
       </c>
@@ -6270,7 +6268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>423</v>
       </c>
@@ -6293,7 +6291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>424</v>
       </c>
@@ -6316,7 +6314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>425</v>
       </c>
@@ -6339,7 +6337,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>426</v>
       </c>
@@ -6362,7 +6360,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>430</v>
       </c>
@@ -6385,7 +6383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>436</v>
       </c>
@@ -6408,7 +6406,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>444</v>
       </c>
@@ -6431,7 +6429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>445</v>
       </c>
@@ -6454,7 +6452,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>446</v>
       </c>
@@ -6477,7 +6475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>447</v>
       </c>
@@ -6500,7 +6498,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>448</v>
       </c>
@@ -6523,7 +6521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>449</v>
       </c>
@@ -6546,7 +6544,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>450</v>
       </c>
@@ -6569,7 +6567,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>452</v>
       </c>
@@ -6592,7 +6590,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>453</v>
       </c>
@@ -6615,7 +6613,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>454</v>
       </c>
@@ -6638,7 +6636,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>455</v>
       </c>
@@ -6661,7 +6659,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>456</v>
       </c>
@@ -6684,7 +6682,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>457</v>
       </c>
@@ -6707,7 +6705,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>458</v>
       </c>
@@ -6730,7 +6728,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>460</v>
       </c>
@@ -6753,7 +6751,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>462</v>
       </c>
@@ -6776,7 +6774,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>464</v>
       </c>
@@ -6799,7 +6797,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>467</v>
       </c>
@@ -6822,7 +6820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>468</v>
       </c>
@@ -6845,7 +6843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>470</v>
       </c>
@@ -6868,7 +6866,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>471</v>
       </c>
@@ -6891,7 +6889,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>472</v>
       </c>
@@ -6914,7 +6912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>478</v>
       </c>
@@ -6937,7 +6935,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>480</v>
       </c>
@@ -6960,7 +6958,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>481</v>
       </c>
@@ -6983,7 +6981,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>482</v>
       </c>
@@ -7006,7 +7004,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>483</v>
       </c>
@@ -7029,7 +7027,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>484</v>
       </c>
@@ -7052,7 +7050,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>485</v>
       </c>
@@ -7075,7 +7073,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>486</v>
       </c>
@@ -7098,7 +7096,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>487</v>
       </c>
@@ -7121,7 +7119,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>488</v>
       </c>
@@ -7144,7 +7142,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>489</v>
       </c>
@@ -7167,7 +7165,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>490</v>
       </c>
@@ -7190,7 +7188,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>491</v>
       </c>
@@ -7213,7 +7211,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>493</v>
       </c>
@@ -7236,7 +7234,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>494</v>
       </c>
@@ -7259,7 +7257,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>495</v>
       </c>
@@ -7282,7 +7280,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>496</v>
       </c>
@@ -7305,7 +7303,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>497</v>
       </c>
@@ -7328,7 +7326,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>498</v>
       </c>
@@ -7351,7 +7349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>500</v>
       </c>
@@ -7374,7 +7372,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>502</v>
       </c>
@@ -7397,7 +7395,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>504</v>
       </c>
@@ -7420,7 +7418,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>506</v>
       </c>
@@ -7443,7 +7441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>508</v>
       </c>
@@ -7466,7 +7464,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>510</v>
       </c>
@@ -7489,7 +7487,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>512</v>
       </c>
@@ -7512,7 +7510,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>518</v>
       </c>
@@ -7535,7 +7533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>519</v>
       </c>
@@ -7558,7 +7556,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>520</v>
       </c>
@@ -7581,7 +7579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>521</v>
       </c>
@@ -7604,7 +7602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>524</v>
       </c>
